--- a/running_time.xlsx
+++ b/running_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Instruction type</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>MARS Tool Output</t>
+  </si>
+  <si>
+    <t># of Blocks: 8</t>
+  </si>
+  <si>
+    <t>Block Size: 4 words</t>
+  </si>
+  <si>
+    <t>Cache Size: 128 bytes</t>
   </si>
 </sst>
 </file>
@@ -444,22 +453,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.83984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -469,12 +478,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -491,26 +500,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4319</v>
+        <v>4021</v>
       </c>
       <c r="D6">
         <f>B6</f>
-        <v>4319</v>
+        <v>4021</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
         <f>D6*E6</f>
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -529,58 +538,58 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1166</v>
+        <v>1066</v>
       </c>
       <c r="D8">
         <f>B8</f>
-        <v>1166</v>
+        <v>1066</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
         <f>D8*E8</f>
-        <v>2332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1682</v>
+        <v>861</v>
       </c>
       <c r="D10">
         <f>B10-(B14+B15-B9)</f>
-        <v>1590</v>
+        <v>769</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10">
         <f>D10*E10</f>
-        <v>7950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -588,26 +597,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="D14">
         <f>B14</f>
-        <v>511</v>
+        <v>413</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
         <f>D14*E14</f>
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -626,10 +635,25 @@
         <v>16040</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18.3" x14ac:dyDescent="0.7">
       <c r="F16" s="4">
         <f>SUM(F6:F15)</f>
-        <v>31961</v>
+        <v>27162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
